--- a/导入功能测试数据/港运通信息数据库导入.xlsx
+++ b/导入功能测试数据/港运通信息数据库导入.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
   <si>
     <t>业务类型</t>
   </si>
@@ -43,9 +43,6 @@
     <t>深圳市厉害物流有限公司</t>
   </si>
   <si>
-    <t>粤BAZ446</t>
-  </si>
-  <si>
     <t>深圳市方式物流有限公司</t>
   </si>
   <si>
@@ -89,13 +86,164 @@
   </si>
   <si>
     <t>王五</t>
+  </si>
+  <si>
+    <t>业务状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审通过</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已办理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤BBY836</t>
+  </si>
+  <si>
+    <t>粤BCC102</t>
+  </si>
+  <si>
+    <t>粤BBY979</t>
+  </si>
+  <si>
+    <t>粤BBX240</t>
+  </si>
+  <si>
+    <t>粤BBZ096</t>
+  </si>
+  <si>
+    <t>粤BBY861</t>
+  </si>
+  <si>
+    <t>粤BBY498</t>
+  </si>
+  <si>
+    <t>粤BCB993</t>
+  </si>
+  <si>
+    <t>粤BBY168</t>
+  </si>
+  <si>
+    <t>粤BBY981</t>
+  </si>
+  <si>
+    <t>粤BBY983</t>
+  </si>
+  <si>
+    <t>粤BCC289</t>
+  </si>
+  <si>
+    <t>粤BCB456</t>
+  </si>
+  <si>
+    <t>粤BBZ012</t>
+  </si>
+  <si>
+    <t>粤BY4039</t>
+  </si>
+  <si>
+    <t>粤BCA291</t>
+  </si>
+  <si>
+    <t>粤BCA788</t>
+  </si>
+  <si>
+    <t>粤BAM119</t>
+  </si>
+  <si>
+    <t>粤BBS246</t>
+  </si>
+  <si>
+    <t>粤BU1010</t>
+  </si>
+  <si>
+    <t>粤BCB939</t>
+  </si>
+  <si>
+    <t>粤BCC293</t>
+  </si>
+  <si>
+    <t>粤BCC363</t>
+  </si>
+  <si>
+    <t>粤BCC353</t>
+  </si>
+  <si>
+    <t>粤BCC450</t>
+  </si>
+  <si>
+    <t>粤BCC560</t>
+  </si>
+  <si>
+    <t>深圳市安顺君贸易有限公司</t>
+  </si>
+  <si>
+    <t>深圳市港昌惠运输有限公司</t>
+  </si>
+  <si>
+    <t>深圳市深华汽车服务有限公司</t>
+  </si>
+  <si>
+    <t>深圳市东威吊装运输有限公司</t>
+  </si>
+  <si>
+    <t>深圳市永盛辉物流有限公司</t>
+  </si>
+  <si>
+    <t>深圳市宏胜达物流有限公司</t>
+  </si>
+  <si>
+    <t>深圳市海跃货运有限公司</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市东泰源贸易有限公司</t>
+  </si>
+  <si>
+    <t>深圳市钢联运输有限公司</t>
+  </si>
+  <si>
+    <t>深圳市吉讯达贸易有限公司</t>
+  </si>
+  <si>
+    <t>李天中</t>
+  </si>
+  <si>
+    <t>深圳市深永盛投资发展有限公司</t>
+  </si>
+  <si>
+    <t>深圳市万易通物流有限公司</t>
+  </si>
+  <si>
+    <t>深圳市宏源通贸易有限公司</t>
+  </si>
+  <si>
+    <t>深圳市广兴五金钟表配件有限公司</t>
+  </si>
+  <si>
+    <t>深圳市捷安达物流有限公司</t>
+  </si>
+  <si>
+    <t>深圳市民意运输有限公司</t>
+  </si>
+  <si>
+    <t>深圳市骏智货运有限公司</t>
+  </si>
+  <si>
+    <t>深圳市为海建材有限公司</t>
+  </si>
+  <si>
+    <t>深圳市福强土石方有限公司</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +401,20 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -554,7 +716,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -681,16 +843,28 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -716,6 +890,7 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="42"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1059,116 +1234,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="3">
+        <v>42472</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
-        <v>42472</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="3">
+        <v>42473</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1">
-        <v>42473</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3">
+        <v>42843</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="3">
+        <v>42843</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="3">
+        <v>42843</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1">
-        <v>42474</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
+      <c r="H21" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/导入功能测试数据/港运通信息数据库导入.xlsx
+++ b/导入功能测试数据/港运通信息数据库导入.xlsx
@@ -92,10 +92,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>初审通过</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>已办理</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -237,6 +233,10 @@
   </si>
   <si>
     <t>深圳市福强土石方有限公司</t>
+  </si>
+  <si>
+    <t>已注销</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1298,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1324,7 +1324,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1332,7 +1332,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1350,7 +1350,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1358,14 +1358,14 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3">
         <v>42474</v>
@@ -1374,7 +1374,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1382,16 +1382,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3">
         <v>42474</v>
@@ -1408,16 +1408,16 @@
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3">
         <v>42474</v>
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1434,14 +1434,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="3">
         <v>42843</v>
@@ -1458,16 +1458,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3">
         <v>42474</v>
@@ -1484,16 +1484,16 @@
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3">
         <v>42474</v>
@@ -1502,7 +1502,7 @@
         <v>23</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1510,13 +1510,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3">
         <v>42474</v>
@@ -1533,16 +1533,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="3">
         <v>42474</v>
@@ -1559,16 +1559,16 @@
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3">
         <v>42843</v>
@@ -1577,7 +1577,7 @@
         <v>23</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1585,13 +1585,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="3">
         <v>42474</v>
@@ -1608,16 +1608,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="3">
         <v>42474</v>
@@ -1626,7 +1626,7 @@
         <v>23</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1634,16 +1634,16 @@
         <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="3">
         <v>42474</v>
@@ -1652,7 +1652,7 @@
         <v>23</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1660,13 +1660,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="3">
         <v>42843</v>
@@ -1683,16 +1683,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="3">
         <v>42474</v>
@@ -1709,16 +1709,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="3">
         <v>42474</v>
@@ -1727,7 +1727,7 @@
         <v>23</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1735,13 +1735,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="3">
         <v>42474</v>
@@ -1761,13 +1761,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="3">
         <v>42474</v>

--- a/导入功能测试数据/港运通信息数据库导入.xlsx
+++ b/导入功能测试数据/港运通信息数据库导入.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
   <si>
     <t>业务类型</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>办理日期</t>
-  </si>
-  <si>
-    <t>经办人</t>
   </si>
   <si>
     <t>天然气车辆</t>
@@ -236,6 +233,14 @@
   </si>
   <si>
     <t>已注销</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人用户名</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -847,7 +852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,6 +867,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1234,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1249,10 +1257,11 @@
     <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1272,511 +1281,514 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="3">
         <v>42472</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F3" s="3">
         <v>42473</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F4" s="3">
         <v>42474</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3">
         <v>42474</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3">
         <v>42474</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3">
         <v>42474</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3">
         <v>42843</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3">
         <v>42474</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3">
         <v>42474</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3">
         <v>42474</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3">
         <v>42474</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3">
         <v>42843</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3">
         <v>42474</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="3">
         <v>42474</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="3">
         <v>42474</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3">
         <v>42843</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="3">
         <v>42474</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="3">
         <v>42474</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="3">
         <v>42474</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="3">
         <v>42474</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/导入功能测试数据/港运通信息数据库导入.xlsx
+++ b/导入功能测试数据/港运通信息数据库导入.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="港运通信息数据库导入" sheetId="1" r:id="rId1"/>
+    <sheet name="数据案例" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="74">
   <si>
     <t>业务类型</t>
   </si>
@@ -1245,7 +1246,565 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3">
+        <v>42472</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>42473</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3">
+        <v>42843</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="3">
+        <v>42843</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="2" customFormat="1">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="2" customFormat="1">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3">
+        <v>42843</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="2" customFormat="1">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="2" customFormat="1">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="2" customFormat="1">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="3">
+        <v>42474</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
